--- a/time/tatyana-malan/5-time.xlsx
+++ b/time/tatyana-malan/5-time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Sprint 5 Progress Log</t>
   </si>
@@ -81,49 +81,88 @@
     <t>#827 4.4 Cultural Blog ~ 2 hrs</t>
   </si>
   <si>
+    <t>#936 5.0 All Together Now ~ 3 hrs</t>
+  </si>
+  <si>
+    <t>Sun 3 Dec</t>
+  </si>
+  <si>
+    <t>Mon 4 Dec</t>
+  </si>
+  <si>
+    <t>#935 5.1 Program Structure ~ 3 hrs</t>
+  </si>
+  <si>
+    <t>Tue 5 Dec</t>
+  </si>
+  <si>
+    <t>Wed 6 Dec</t>
+  </si>
+  <si>
+    <t>5.2 Event handling ~ 2 hours</t>
+  </si>
+  <si>
+    <t>5.3 Altering the DOM ~ 2 hours</t>
+  </si>
+  <si>
+    <t>Thur7 Dec</t>
+  </si>
+  <si>
+    <t>Laptop Out for Repairs</t>
+  </si>
+  <si>
+    <t>Fri 8 Dec</t>
+  </si>
+  <si>
+    <t>Sat 9 Dec</t>
+  </si>
+  <si>
+    <t>Sun 10 Dec</t>
+  </si>
+  <si>
+    <t>Mon 11 Dec</t>
+  </si>
+  <si>
+    <t>Tue 12 Dec</t>
+  </si>
+  <si>
+    <t>#932 5.4 Event-driven DOM modification</t>
+  </si>
+  <si>
+    <t>Wed 13 Dec</t>
+  </si>
+  <si>
+    <t>Mental Health Day</t>
+  </si>
+  <si>
+    <t>Thur 14 Dec</t>
+  </si>
+  <si>
+    <t>#931 5.5 Debugging</t>
+  </si>
+  <si>
+    <t>#930 5.6 Cultural Blog ~ 1.5 hrs</t>
+  </si>
+  <si>
     <t>Break</t>
   </si>
   <si>
-    <t>#936 5.0 All Together Now ~ 3 hrs</t>
-  </si>
-  <si>
-    <t>Sun 3 Dec</t>
-  </si>
-  <si>
-    <t>Mon 4 Dec</t>
-  </si>
-  <si>
-    <t>#935 5.1 Program Structure ~ 3 hrs</t>
-  </si>
-  <si>
-    <t>Tue 5 Dec</t>
-  </si>
-  <si>
-    <t>Wed 6 Dec</t>
-  </si>
-  <si>
-    <t>5.2 Event handling ~ 2 hours</t>
-  </si>
-  <si>
-    <t>5.3 Altering the DOM ~ 2 hours</t>
-  </si>
-  <si>
-    <t>Thur7 Dec</t>
-  </si>
-  <si>
-    <t>Fri 8 Dec</t>
-  </si>
-  <si>
-    <t>Sat 9 Dec</t>
-  </si>
-  <si>
-    <t>Sun 10 Dec</t>
-  </si>
-  <si>
-    <t>Mon 11 Dec</t>
-  </si>
-  <si>
-    <t>Tue 12 Dec</t>
+    <t xml:space="preserve">#929 5.7 Technical Blog ~ 1.5 hr
+</t>
+  </si>
+  <si>
+    <t>Fri 15 Dec</t>
+  </si>
+  <si>
+    <t>#928
+ 5.8 Reflection ~ 15 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#927 5.9 Weekly Feedback Form and Toggl ~ 15 mins
+</t>
+  </si>
+  <si>
+    <t>Total Hrs:</t>
   </si>
 </sst>
 </file>
@@ -131,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,24 +200,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,7 +246,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,22 +269,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,15 +305,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +328,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -265,46 +342,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,13 +370,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,19 +412,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,162 +586,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -720,6 +783,68 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -813,10 +938,32 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +994,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -862,45 +1057,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -914,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,134 +1088,134 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,34 +1264,76 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,10 +1649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1479,7 +1677,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="27"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" ht="15.75" spans="1:18">
       <c r="A2" s="4"/>
@@ -1500,8 +1698,8 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1552,10 +1750,10 @@
       <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="31"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" ht="60" spans="1:18">
       <c r="A4" s="11" t="s">
@@ -1569,32 +1767,30 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="33">
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="51" customHeight="1" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="15"/>
@@ -1602,25 +1798,25 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="26"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:18">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="18"/>
@@ -1634,24 +1830,24 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33">
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="47" customHeight="1" spans="1:18">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="18"/>
@@ -1660,134 +1856,136 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33">
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="40" customHeight="1" spans="1:18">
+    <row r="8" ht="47" customHeight="1" spans="1:18">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="36" customHeight="1" spans="1:18">
+    <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
+      <c r="D9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="38" customHeight="1" spans="1:18">
+    <row r="10" ht="12" customHeight="1" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="33"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" ht="13" customHeight="1" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" ht="11" customHeight="1" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="33"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
@@ -1795,50 +1993,146 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="33"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" ht="44" customHeight="1" spans="1:18">
       <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="D14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="33"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:18">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="43"/>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:18">
+      <c r="A16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="114" customHeight="1" spans="1:18">
+      <c r="A17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18">
+      <c r="Q18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="29">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="A3:B3"/>
@@ -1859,7 +2153,15 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="D9:Q13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
